--- a/ig/sd-group-characteristic-alignement-vs/CodeSystem-eclaire-study-title-type-code-system.xlsx
+++ b/ig/sd-group-characteristic-alignement-vs/CodeSystem-eclaire-study-title-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T15:24:46+00:00</t>
+    <t>2023-12-11T15:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-group-characteristic-alignement-vs/CodeSystem-eclaire-study-title-type-code-system.xlsx
+++ b/ig/sd-group-characteristic-alignement-vs/CodeSystem-eclaire-study-title-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T15:49:53+00:00</t>
+    <t>2024-01-10T17:41:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-group-characteristic-alignement-vs/CodeSystem-eclaire-study-title-type-code-system.xlsx
+++ b/ig/sd-group-characteristic-alignement-vs/CodeSystem-eclaire-study-title-type-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-10T17:41:42+00:00</t>
+    <t>2024-01-11T08:51:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
